--- a/问题3/分析结果/附件4/附件4_条纹间隔数据.xlsx
+++ b/问题3/分析结果/附件4/附件4_条纹间隔数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1073 +447,569 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.99019759499337</v>
+        <v>24.90019999840639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.312266705190929</v>
+        <v>1.195209552702785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.67793088980244</v>
+        <v>23.7049904457036</v>
       </c>
       <c r="B3" t="n">
-        <v>6.277036379419233</v>
+        <v>10.39185402785857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.4008945103832</v>
+        <v>13.31313641784504</v>
       </c>
       <c r="B4" t="n">
-        <v>4.053491234343152</v>
+        <v>4.30277179541986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.34740327604005</v>
+        <v>9.010364622425175</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2939942085677618</v>
+        <v>2.427736178887671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.05340906747229</v>
+        <v>6.582628443537504</v>
       </c>
       <c r="B6" t="n">
-        <v>4.031281397148051</v>
+        <v>0.08251209145480143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.022127670324238</v>
+        <v>6.500116352082703</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1352926277562982</v>
+        <v>0.07052169944798337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.88683504256794</v>
+        <v>6.429594652634719</v>
       </c>
       <c r="B8" t="n">
-        <v>1.382544464429889</v>
+        <v>0.651916250925451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.504290578138051</v>
+        <v>5.777678401709268</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8498591926455106</v>
+        <v>0.6282576600484973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.654431385492541</v>
+        <v>5.149420741660771</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07180294195503656</v>
+        <v>0.5319078080070438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.582628443537504</v>
+        <v>4.617512933653727</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08047493029391806</v>
+        <v>0.3016858895593542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.502153513243586</v>
+        <v>4.315827044094373</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06058115119629992</v>
+        <v>0.03031785060577619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.441572362047286</v>
+        <v>4.285509193488597</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08878021460660435</v>
+        <v>0.06625301459888533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.352792147440682</v>
+        <v>4.219256178889712</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4451126366910678</v>
+        <v>0.03236333068886132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.907679510749614</v>
+        <v>4.18689284820085</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09763091550316361</v>
+        <v>0.3113579759442935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.81004859524645</v>
+        <v>3.875534872256557</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07549861979032446</v>
+        <v>0.03658054199285177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.734549975456126</v>
+        <v>3.838954330263705</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04717367589064114</v>
+        <v>0.2447991454252891</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.687376299565485</v>
+        <v>3.594155184838416</v>
       </c>
       <c r="B18" t="n">
-        <v>0.441581984013121</v>
+        <v>0.02474078296518734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.245794315552364</v>
+        <v>3.569414401873229</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05253765546036071</v>
+        <v>0.0183322628575957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.193256660092003</v>
+        <v>3.551082139015633</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04383591843123202</v>
+        <v>0.02175341733849612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.149420741660771</v>
+        <v>3.529328721677137</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03806735239900938</v>
+        <v>0.03154351926730303</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.111353389261762</v>
+        <v>3.497785202409834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03999172358316549</v>
+        <v>0.126220573898939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.071361665678596</v>
+        <v>3.371564628510895</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03937078364607505</v>
+        <v>0.02664113527349388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.031990882032521</v>
+        <v>3.344923493237401</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07219498755317044</v>
+        <v>0.01930780537702859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.959795894479351</v>
+        <v>3.325615687860372</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0999395712716904</v>
+        <v>0.02119165888189523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.85985632320766</v>
+        <v>3.304424028978477</v>
       </c>
       <c r="B26" t="n">
-        <v>0.157552147138345</v>
+        <v>0.02404046028855733</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.702304176069315</v>
+        <v>3.28038356868992</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03596819707902643</v>
+        <v>0.01600373067497607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.666335978990289</v>
+        <v>3.264379838014944</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03128161907275651</v>
+        <v>0.0199145713134099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.635054359917532</v>
+        <v>3.244465266701534</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03393039735595771</v>
+        <v>0.04849168206240551</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.601123962561575</v>
+        <v>3.195973584639128</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03243138531640444</v>
+        <v>0.02927609545023335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.56869257724517</v>
+        <v>3.166697489188895</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03098307686967505</v>
+        <v>0.02874460806176726</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.537709500375495</v>
+        <v>3.137952881127128</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06747877835724037</v>
+        <v>0.02028135775176176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.470230722018255</v>
+        <v>3.117671523375366</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04671442467833664</v>
+        <v>0.01677902449633839</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.423516297339918</v>
+        <v>3.100892498879027</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04482423892991694</v>
+        <v>0.01843332528016672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.378692058410001</v>
+        <v>3.082459173598861</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03029311715817595</v>
+        <v>0.015043198557811</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.348398941251825</v>
+        <v>3.06741597504105</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03346950113549418</v>
+        <v>0.01579506081814674</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.314929440116331</v>
+        <v>3.051620914222903</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02853484234517101</v>
+        <v>0.01341025016423636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.28639459777116</v>
+        <v>3.038210664058667</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03949334926713099</v>
+        <v>0.02428058060595673</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.246901248504029</v>
+        <v>3.01393008345271</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02850295746154519</v>
+        <v>0.01525040211640238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.218398291042484</v>
+        <v>2.998679681336307</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02981486158116109</v>
+        <v>0.02749070658665964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.188583429461323</v>
+        <v>2.971188974749648</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02856239639497904</v>
+        <v>0.01482286901403151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.160021033066344</v>
+        <v>2.956366105735616</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0248796505149036</v>
+        <v>0.02175022787902448</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.13514138255144</v>
+        <v>2.934615877856592</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02865358354266423</v>
+        <v>0.01651386976469515</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.106487799008776</v>
+        <v>2.918102008091897</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02665526797451001</v>
+        <v>0.01307855438504335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.079832531034266</v>
+        <v>2.905023453706853</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03105939027137961</v>
+        <v>0.02420852878088997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.048773140762886</v>
+        <v>2.880814924925963</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03214591068124051</v>
+        <v>0.01195400041831762</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.016627230081646</v>
+        <v>2.868860924507646</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02473556044101999</v>
+        <v>0.01735346082943501</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.991891669640626</v>
+        <v>2.851507463678211</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02367549392166435</v>
+        <v>0.0167575113020102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.968216175718962</v>
+        <v>2.834749952376201</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02789160330328277</v>
+        <v>0.01426215465255964</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.940324572415679</v>
+        <v>2.820487797723641</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02306953404224821</v>
+        <v>0.02433463340098951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.917255038373431</v>
+        <v>2.796153164322651</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02206828169678854</v>
+        <v>0.01648753030176753</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.895186756676642</v>
+        <v>2.779665634020884</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03838665886819115</v>
+        <v>0.01445191203491847</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.856800097808451</v>
+        <v>2.765213721985965</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02706110218048075</v>
+        <v>0.02339414632641379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.82973899562797</v>
+        <v>2.741819575659552</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02179638893893854</v>
+        <v>0.02157497126472441</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.807942606689032</v>
+        <v>2.720244604394827</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02085709846404971</v>
+        <v>0.01278262257597573</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.787085508224982</v>
+        <v>2.707461981818851</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02131493177211929</v>
+        <v>0.01126222145708633</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.765770576452863</v>
+        <v>2.696199760361765</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0231029302053174</v>
+        <v>0.01706403882898888</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.742667646247545</v>
+        <v>2.679135721532776</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02948018672128816</v>
+        <v>0.01102827684597862</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.713187459526257</v>
+        <v>2.668107444686798</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0198347188553889</v>
+        <v>0.01025633856890273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.693352740670868</v>
+        <v>2.657851106117895</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02287501698369665</v>
+        <v>0.011530061329176</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.670477723687172</v>
+        <v>2.646321044788719</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01938358205027679</v>
+        <v>0.01343604788894082</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.651094141636895</v>
+        <v>2.632884996899778</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02425918982846387</v>
+        <v>0.0179241258667715</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.626834951808431</v>
+        <v>2.614960871033007</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02080783809056319</v>
+        <v>0.01540367960499456</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.606027113717868</v>
+        <v>2.599557191428012</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01871057356987693</v>
+        <v>0.01006096497138786</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.587316540147991</v>
+        <v>2.589496226456624</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01912992113326695</v>
+        <v>0.01350646034876712</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.568186619014724</v>
+        <v>2.575989766107857</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01892823655373865</v>
+        <v>0.01336695240951036</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.549258382460985</v>
+        <v>2.562622813698347</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02052994563828037</v>
+        <v>0.01542060965522385</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.528728436822705</v>
+        <v>2.547202204043123</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01910680913038609</v>
+        <v>0.01430814208397457</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.509621627692319</v>
+        <v>2.532894061959148</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01831236926386204</v>
+        <v>0.009859386127474057</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.491309258428457</v>
+        <v>2.523034675831674</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01812346834294321</v>
+        <v>0.009478438655524002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.473185790085513</v>
+        <v>2.51355623717615</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0173595434998699</v>
+        <v>0.01333121692432737</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.455826246585644</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.0194662590115211</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3.436359987574122</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.01755890641246838</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3.418801081161654</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.01849532566811973</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3.400305755493534</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.01939854990124346</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3.380907205592291</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.01808867942149206</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3.362818526170799</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.01681611236465752</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3.346002413806141</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.01611551341471307</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3.329886900391428</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.02599018548897059</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3.303896714902458</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.0162334084468676</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3.28766330645559</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.0160757358710879</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3.271587570584502</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01591822938547161</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3.255669341199031</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01627100113152791</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3.239398340067503</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.01510730524096759</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3.224291034826535</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.0149660200636399</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3.209325014762895</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.01532054443423858</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3.194004470328657</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.01517395571732116</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3.178830514611335</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.01647819251183691</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>3.162352322099498</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01678522825433548</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3.145567093845163</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.01519165226657737</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3.130375441578586</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.01410975001222914</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3.116265691566356</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.01583755344476323</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3.100428138121593</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.01888464228922659</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3.081543495832367</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.01548746488482333</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3.066056030947543</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.014883907920622</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3.051172123026921</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0160727159335905</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3.035099407093331</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.01326575238798799</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3.021833654705343</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.01358654525478409</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3.008247109450559</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.01346402158961224</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2.994783087860946</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.01420157640806208</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2.980581511452884</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.01406752137290734</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>2.966513990079977</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.0130947279976863</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>2.953419262082291</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.01256196100702534</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>2.940857301075265</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.01369590705563173</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2.927161394019634</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.02213794031278038</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2.905023453706853</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.01537953296863037</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2.889643920738223</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.01242547742273503</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2.877218443315488</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.01271545033953592</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2.864502992975952</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.01221066267593685</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2.852292330300015</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.01599142259863573</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2.836300907701379</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.01542961954486399</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2.820871288156515</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.01564200414360162</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2.805229284012914</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.01171158596088961</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2.793517698052024</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01161497673914402</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2.78190272131288</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.01595168915676348</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>2.765951032156117</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.012849456748802</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>2.753101575407315</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.01128199974776312</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>2.741819575659552</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.02157497126472441</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>2.720244604394827</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.01207579231682754</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>2.708168812078</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.01196905171623452</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2.696199760361765</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.01671802571887993</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>2.679481734642885</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.01137428995608758</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2.668107444686798</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.01229843347370663</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>2.655809011213091</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.011848675906041</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>2.64396033530705</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.01040691591445775</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2.633553419392592</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0182629142309243</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>2.615290505161668</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.01018287904775628</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2.605107626113912</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.01625764764019921</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2.588849978473712</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.01286021236585544</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2.575989766107857</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.01273373374111042</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2.563256032366747</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.01824172811384983</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2.545014304252897</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.009643986796644022</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2.535370317456253</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.01815318155094436</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2.517217135905308</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.01669077510636008</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2.500526360798948</v>
-      </c>
-      <c r="B135" t="inlineStr"/>
+        <v>2.500225020251823</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
